--- a/jayud-storage/jayud-storage-web/src/main/resources/static/storage1.xlsx
+++ b/jayud-storage/jayud-storage-web/src/main/resources/static/storage1.xlsx
@@ -67,22 +67,47 @@
     <t>{木箱} 木箱</t>
   </si>
   <si>
-    <t>客户：${customerName}</t>
-  </si>
-  <si>
-    <t>入仓号:${warehouseNumber}</t>
-  </si>
-  <si>
-    <t>日期:${createTime}</t>
-  </si>
-  <si>
-    <t>车牌及电话:${plateNumber}</t>
+    <t>客户：{customerName}</t>
+  </si>
+  <si>
+    <t>入仓号:{warehouseNumber}</t>
+  </si>
+  <si>
+    <t>日期:{createTime}</t>
+  </si>
+  <si>
+    <t>车牌及电话:{plateNumber}</t>
+  </si>
+  <si>
+    <t>货物名称</t>
   </si>
   <si>
     <t>型号/品名</t>
   </si>
   <si>
-    <t>件數/数量</t>
+    <r>
+      <t>件數</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数量</t>
+    </r>
   </si>
   <si>
     <t>重量KG</t>
@@ -91,25 +116,22 @@
     <t>体积/尺寸</t>
   </si>
   <si>
-    <t>库位</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
-    <t>{goodList.sku}</t>
-  </si>
-  <si>
-    <t>{goodList.number}</t>
+    <t>{goodList.name}</t>
+  </si>
+  <si>
+    <t>{goodList.sku}/{goodList.specificationModel}</t>
+  </si>
+  <si>
+    <t>{goodList.boardNumber}板{goodList.number}件{goodList.pcs}pcs</t>
   </si>
   <si>
     <t>{goodList.weight}</t>
   </si>
   <si>
     <t>{goodList.volume}</t>
-  </si>
-  <si>
-    <t>{goodList.location}</t>
   </si>
   <si>
     <t>{goodList.remarks}</t>
@@ -201,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -302,7 +324,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,15 +445,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,111 +460,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -454,37 +476,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,49 +638,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,85 +650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,6 +738,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -725,11 +771,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,50 +803,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,6 +824,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -821,10 +843,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -833,137 +855,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1001,9 +1023,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1428,8 +1447,8 @@
   <sheetPr/>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:L32"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1636,7 +1655,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" ht="16.5" spans="1:12">
+    <row r="15" ht="15" spans="1:12">
       <c r="A15" s="10" t="s">
         <v>21</v>
       </c>
@@ -1645,184 +1664,184 @@
         <v>22</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="10" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="11"/>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="14"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="12" t="s">
         <v>26</v>
       </c>
       <c r="L15" s="11"/>
     </row>
-    <row r="16" ht="14.25" spans="1:12">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:12">
+      <c r="A16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="18" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="15" t="s">
+      <c r="F16" s="18"/>
+      <c r="G16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17" t="s">
+      <c r="H16" s="15"/>
+      <c r="I16" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="18" t="s">
+      <c r="J16" s="15"/>
+      <c r="K16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="19"/>
+      <c r="L16" s="18"/>
     </row>
     <row r="17" ht="14.25" spans="1:12">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="19"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
     </row>
     <row r="18" ht="14.25" spans="1:12">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="19"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" ht="14.25" spans="1:12">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="19"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="18"/>
     </row>
     <row r="20" ht="19.5" spans="1:12">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" ht="19.5" spans="1:12">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="22" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="23" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25" t="s">
+      <c r="F21" s="23"/>
+      <c r="G21" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="26" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" ht="29" customHeight="1" spans="1:12">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29" t="s">
+      <c r="E24" s="28"/>
+      <c r="F24" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30" t="s">
+      <c r="G24" s="28"/>
+      <c r="H24" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
     </row>
     <row r="25" ht="32" customHeight="1" spans="1:12">
       <c r="A25" s="6" t="s">
@@ -1841,144 +1860,144 @@
         <v>48</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="31" t="s">
+      <c r="I25" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
     </row>
     <row r="26" ht="25" customHeight="1" spans="1:12">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="1:12">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
     </row>
     <row r="28" ht="33" customHeight="1" spans="1:12">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
     </row>
     <row r="29" ht="28" customHeight="1" spans="1:12">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
     </row>
     <row r="30" ht="27" customHeight="1" spans="1:12">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
     </row>
     <row r="31" ht="33" customHeight="1" spans="1:12">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:12">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
     </row>
     <row r="33" ht="36" customHeight="1" spans="1:12">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31" t="s">
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31" t="s">
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="88">
